--- a/biology/Médecine/Max_Thomas/Max_Thomas.xlsx
+++ b/biology/Médecine/Max_Thomas/Max_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Max Thomas (4 août 1891 à Düsseldorf – 6 décembre 1945 à Wurtzbourg) est un médecin allemand, SS-Gruppenführer, lieutenant général de la police, chef de la section supérieure du SD du Rhin et de l'Einsatzgruppe C en URSS, ainsi que Höhere SS- und Polizeiführer de la "mer Noire".
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Volontaire au début de la Première Guerre mondiale, il est promu officier en 1919 dans la Reichswehr nouvellement créée.
 Thomas étudie le droit et la médecine jusqu'en 1922 au cours duquel il obtient son doctorat. Il exerce ensuite en tant que médecin spécialiste en psychiatrie.
